--- a/TestEquations.edit.xlsx
+++ b/TestEquations.edit.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>1. Заходим на сайт Desmos</t>
   </si>
@@ -138,172 +138,223 @@
     <t>(1.2+4.3i)^(0.2-3.2i)</t>
   </si>
   <si>
+    <t>ln(f(a)*g(b))^(sin(a-b))</t>
+  </si>
+  <si>
+    <t>f=2^a</t>
+  </si>
+  <si>
+    <t>g=tg(cos(b))</t>
+  </si>
+  <si>
+    <t>a=2.8</t>
+  </si>
+  <si>
+    <t>b=-4.4</t>
+  </si>
+  <si>
+    <t>a=1.5</t>
+  </si>
+  <si>
+    <t>b=2</t>
+  </si>
+  <si>
+    <t>Тест7</t>
+  </si>
+  <si>
+    <t>Тест8</t>
+  </si>
+  <si>
+    <t>log(sqrt(f(a))-cos(e*pi)</t>
+  </si>
+  <si>
+    <t>f=mod(a^3-a^a,a)</t>
+  </si>
+  <si>
+    <t>a=-4.5</t>
+  </si>
+  <si>
+    <t>Тест9</t>
+  </si>
+  <si>
+    <t>Тест10</t>
+  </si>
+  <si>
+    <t>exp(f(t)+g(t))+t!</t>
+  </si>
+  <si>
+    <t>f=t-e</t>
+  </si>
+  <si>
+    <t>g=1/t^3</t>
+  </si>
+  <si>
+    <t>t=3</t>
+  </si>
+  <si>
+    <t>t=-3</t>
+  </si>
+  <si>
+    <t>t=6.5</t>
+  </si>
+  <si>
+    <t>Тест11</t>
+  </si>
+  <si>
+    <t>ceil(t^2)^(floor(p))</t>
+  </si>
+  <si>
+    <t>p=2.3</t>
+  </si>
+  <si>
+    <t>t=5.6</t>
+  </si>
+  <si>
+    <t>p=-1.9</t>
+  </si>
+  <si>
+    <t>t=-2.7</t>
+  </si>
+  <si>
+    <t>sqrt(-1)+2i</t>
+  </si>
+  <si>
+    <t>Тест12</t>
+  </si>
+  <si>
+    <t>(2+3i)*(5-3i)</t>
+  </si>
+  <si>
+    <t>Тест13</t>
+  </si>
+  <si>
+    <t>Тест14</t>
+  </si>
+  <si>
+    <t>(5.5+6.2i)/(7i)</t>
+  </si>
+  <si>
+    <t>Тест15</t>
+  </si>
+  <si>
+    <t>Тест16</t>
+  </si>
+  <si>
+    <t>5 -1.2 0.8 6.4 3 -12 -6.5 5 0</t>
+  </si>
+  <si>
+    <t>2.3 -4.4 0 25 -1.25 6.6 0 10 -3</t>
+  </si>
+  <si>
+    <t>Тест17</t>
+  </si>
+  <si>
+    <t>Тест18</t>
+  </si>
+  <si>
+    <t>Тест19</t>
+  </si>
+  <si>
+    <t>Тест20</t>
+  </si>
+  <si>
     <t>Тест6</t>
   </si>
   <si>
-    <t>a^(sin(gcd(b,c)))</t>
-  </si>
-  <si>
-    <t>a=3.2</t>
-  </si>
-  <si>
-    <t>b=1.8</t>
-  </si>
-  <si>
-    <t>c=7.7</t>
-  </si>
-  <si>
-    <t>ln(f(a)*g(b))^(sin(a-b))</t>
-  </si>
-  <si>
-    <t>f=2^a</t>
-  </si>
-  <si>
-    <t>g=tg(cos(b))</t>
-  </si>
-  <si>
-    <t>a=2.8</t>
-  </si>
-  <si>
-    <t>b=-4.4</t>
-  </si>
-  <si>
-    <t>a=1.5</t>
-  </si>
-  <si>
-    <t>b=2</t>
-  </si>
-  <si>
-    <t>Тест7</t>
-  </si>
-  <si>
-    <t>Тест8</t>
-  </si>
-  <si>
-    <t>log(sqrt(f(a))-cos(e*pi)</t>
-  </si>
-  <si>
-    <t>f=mod(a^3-a^a,a)</t>
-  </si>
-  <si>
-    <t>a=-4.5</t>
-  </si>
-  <si>
-    <t>Тест9</t>
-  </si>
-  <si>
-    <t>lcm(a,b)*log(b, gcd(b,a))</t>
-  </si>
-  <si>
-    <t>a=-6.3</t>
-  </si>
-  <si>
-    <t>b=3</t>
-  </si>
-  <si>
-    <t>a=4.7</t>
-  </si>
-  <si>
-    <t>b=5.5</t>
-  </si>
-  <si>
-    <t>a=3.1</t>
-  </si>
-  <si>
-    <t>a=-7</t>
-  </si>
-  <si>
-    <t>Тест10</t>
-  </si>
-  <si>
-    <t>exp(f(t)+g(t))+t!</t>
-  </si>
-  <si>
-    <t>f=t-e</t>
-  </si>
-  <si>
-    <t>g=1/t^3</t>
-  </si>
-  <si>
-    <t>t=3</t>
-  </si>
-  <si>
-    <t>t=-3</t>
-  </si>
-  <si>
-    <t>t=6.5</t>
-  </si>
-  <si>
-    <t>Тест11</t>
-  </si>
-  <si>
-    <t>ceil(t^2)^(floor(p))</t>
-  </si>
-  <si>
-    <t>p=2.3</t>
-  </si>
-  <si>
-    <t>t=5.6</t>
-  </si>
-  <si>
-    <t>p=-1.9</t>
-  </si>
-  <si>
-    <t>t=-2.7</t>
-  </si>
-  <si>
-    <t>sqrt(-1)+2i</t>
-  </si>
-  <si>
-    <t>Тест12</t>
-  </si>
-  <si>
-    <t>(2+3i)*(5-3i)</t>
-  </si>
-  <si>
-    <t>Тест13</t>
-  </si>
-  <si>
-    <t>Тест14</t>
-  </si>
-  <si>
-    <t>(5.5+6.2i)/(7i)</t>
-  </si>
-  <si>
-    <t>Тест15</t>
-  </si>
-  <si>
-    <t>Тест16</t>
-  </si>
-  <si>
-    <t>5 -1.2 0.8 6.4 3 -12 -6.5 5 0</t>
-  </si>
-  <si>
-    <t>2.3 -4.4 0 25 -1.25 6.6 0 10 -3</t>
-  </si>
-  <si>
-    <t>Тест17</t>
-  </si>
-  <si>
-    <t>2.3 -4.4 0 -4.4 25 -1.25 6.6 -1.25 0 10 -3 10 7.1 0 9.9 0</t>
-  </si>
-  <si>
-    <t>Тест18</t>
-  </si>
-  <si>
-    <t>C(12,8)+P(8,7)</t>
-  </si>
-  <si>
-    <t>Тест19</t>
-  </si>
-  <si>
-    <t>B(5)</t>
-  </si>
-  <si>
-    <t>Тест20</t>
-  </si>
-  <si>
-    <t>(2.8+7.5i)+6.6-(6-5i)^(0-7i)</t>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>0.015625</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>19+9i</t>
+  </si>
+  <si>
+    <t>0.885714</t>
+  </si>
+  <si>
+    <t>`- .</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>(      -     0.)</t>
+  </si>
+  <si>
+    <t>`-  .12</t>
+  </si>
+  <si>
+    <t>`-0.12</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>`-009</t>
+  </si>
+  <si>
+    <t>`-</t>
+  </si>
+  <si>
+    <t>`..</t>
+  </si>
+  <si>
+    <t>Тест21</t>
+  </si>
+  <si>
+    <t>Тест22</t>
+  </si>
+  <si>
+    <t>Тест23</t>
+  </si>
+  <si>
+    <t>`- 008 + -8</t>
+  </si>
+  <si>
+    <t>cos(sin(cos(sin(6.4))))</t>
+  </si>
+  <si>
+    <t>.5+.34</t>
+  </si>
+  <si>
+    <t>(      -     .0)</t>
+  </si>
+  <si>
+    <t>sin(cos(2i))/ln(-8+2i)</t>
+  </si>
+  <si>
+    <t>ceil(pi)*floor(e)</t>
+  </si>
+  <si>
+    <t>(ceil(5.6*5.6))^(floor(2.3))</t>
+  </si>
+  <si>
+    <t>Тест24</t>
+  </si>
+  <si>
+    <t>Тест25</t>
+  </si>
+  <si>
+    <t>e^5</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>`- 77</t>
+  </si>
+  <si>
+    <t>Тест26</t>
+  </si>
+  <si>
+    <t>Тест27</t>
+  </si>
+  <si>
+    <t>Тест28</t>
   </si>
 </sst>
 </file>
@@ -429,7 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -471,7 +522,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,11 +547,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -609,14 +664,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6543</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>217068</xdr:rowOff>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>239366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -639,28 +694,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12646218" y="962025"/>
-          <a:ext cx="2060382" cy="1512468"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5632</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>179484</xdr:rowOff>
+          <a:off x="12648123" y="960119"/>
+          <a:ext cx="2393757" cy="1743773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2009692</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>842425</xdr:colOff>
+      <xdr:colOff>834805</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>44086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -683,8 +738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12645307" y="3056034"/>
-          <a:ext cx="2427468" cy="782541"/>
+          <a:off x="12639592" y="3219864"/>
+          <a:ext cx="2429373" cy="784446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,14 +752,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1996937</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3599</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,15 +795,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>90352</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -771,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15523846" y="4181476"/>
-          <a:ext cx="2430779" cy="942974"/>
+          <a:off x="15811501" y="4579621"/>
+          <a:ext cx="2429691" cy="944879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,14 +840,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175261</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,8 +870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12654915" y="5480686"/>
-          <a:ext cx="2440305" cy="967739"/>
+          <a:off x="12656820" y="5875021"/>
+          <a:ext cx="2438400" cy="971549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -829,14 +884,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26505</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13251</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>11833</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17740</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -859,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15319514" y="5493025"/>
-          <a:ext cx="2325756" cy="945393"/>
+          <a:off x="15838005" y="5880651"/>
+          <a:ext cx="2324668" cy="949369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,15 +927,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>141</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>840104</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -903,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12481560" y="6791325"/>
-          <a:ext cx="2434589" cy="1990866"/>
+          <a:off x="12641580" y="7200900"/>
+          <a:ext cx="2432684" cy="2004201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,19 +971,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>5290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -947,38 +1002,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12468225" y="9152467"/>
-          <a:ext cx="2447925" cy="1639358"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
+          <a:off x="12650046" y="9576010"/>
+          <a:ext cx="2446020" cy="1993055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>715255</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>5290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+      <xdr:rowOff>117324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -991,38 +1046,81 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12458700" y="11501965"/>
-          <a:ext cx="2447925" cy="1994960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+          <a:off x="15811500" y="9579187"/>
+          <a:ext cx="2224015" cy="1988820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>715255</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>11935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="21717"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12641580" y="11925301"/>
+          <a:ext cx="2446020" cy="1452114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1035,81 +1133,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15816943" y="11517086"/>
-          <a:ext cx="2228369" cy="2013857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="12641580" y="13738861"/>
+          <a:ext cx="2453580" cy="1924049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23996</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>11935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="21717"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12458700" y="14030326"/>
-          <a:ext cx="2447925" cy="1450209"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1122,38 +1177,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649201" y="15913555"/>
-          <a:ext cx="2438399" cy="1242331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="15819120" y="13731240"/>
+          <a:ext cx="2355716" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>29619</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>443</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1166,32 +1221,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15816943" y="15904030"/>
-          <a:ext cx="2329543" cy="1259102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
+          <a:off x="19225261" y="13746481"/>
+          <a:ext cx="2460398" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1210,32 +1265,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19222811" y="15830551"/>
-          <a:ext cx="2475139" cy="1266824"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="12641580" y="16040100"/>
+          <a:ext cx="2430780" cy="1314594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94706</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20"/>
+      <xdr:rowOff>22555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1254,38 +1309,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12639675" y="17449801"/>
-          <a:ext cx="2447321" cy="1924049"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16376</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21"/>
+          <a:off x="15819120" y="16047720"/>
+          <a:ext cx="2426426" cy="1310334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2015066</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8465</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1298,32 +1353,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15811500" y="17449800"/>
-          <a:ext cx="2350001" cy="1752600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>21999</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22"/>
+          <a:off x="12649199" y="21708534"/>
+          <a:ext cx="2455333" cy="1888066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1342,8 +1397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19211926" y="17449801"/>
-          <a:ext cx="2460398" cy="1924050"/>
+          <a:off x="12649200" y="19933920"/>
+          <a:ext cx="2446020" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1355,19 +1410,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>11574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>24554</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>1693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1386,38 +1441,124 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="19866429"/>
-          <a:ext cx="2427514" cy="1328745"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+          <a:off x="12649201" y="22181821"/>
+          <a:ext cx="2462953" cy="2036233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>7314</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="22585"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="24582120"/>
+          <a:ext cx="2446020" cy="776393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>847</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="35906" b="58823"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="25351740"/>
+          <a:ext cx="2439247" cy="552026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>193887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1430,52 +1571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15816943" y="19866429"/>
-          <a:ext cx="2427514" cy="1324485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2015066</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>8465</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12649199" y="21708534"/>
-          <a:ext cx="2455333" cy="1888066"/>
+          <a:off x="12649200" y="26212801"/>
+          <a:ext cx="2446020" cy="506305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,67 +1585,23 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12649200" y="23977600"/>
-          <a:ext cx="2446867" cy="1888067"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Рисунок 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1556,14 +1609,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12649201" y="26246668"/>
-          <a:ext cx="2463800" cy="2065866"/>
+        <a:srcRect r="24576"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12641580" y="26723340"/>
+          <a:ext cx="2446020" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,14 +1632,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25"/>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>28536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1600,13 +1652,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="22585"/>
+        <a:srcRect l="1692" t="1724" b="90908"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="28702000"/>
-          <a:ext cx="2446867" cy="778933"/>
+          <a:off x="12649200" y="29445857"/>
+          <a:ext cx="4680857" cy="344221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1618,68 +1670,68 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1588</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3384" t="80266"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12660086" y="29761543"/>
+          <a:ext cx="4671559" cy="936171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>846667</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Рисунок 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="35906" b="58823"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12649200" y="29480933"/>
-          <a:ext cx="2438400" cy="558799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1692,32 +1744,75 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="30344534"/>
-          <a:ext cx="2446867" cy="507999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+          <a:off x="10624457" y="29979258"/>
+          <a:ext cx="2028825" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1987342</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="-1" r="14423" b="-14707"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="8860970"/>
+          <a:ext cx="1987342" cy="435430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Рисунок 28"/>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1730,215 +1825,43 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="24576"/>
+        <a:srcRect t="1" r="29812" b="-17949"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="30861000"/>
-          <a:ext cx="2446867" cy="558800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1058332</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>136463</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="14827" b="-11094"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19219332" y="28702000"/>
-          <a:ext cx="2583331" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>8468</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160867</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>172306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="12772" b="50838"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19227802" y="29421668"/>
-          <a:ext cx="2599265" cy="350105"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
+          <a:off x="10635343" y="22272171"/>
+          <a:ext cx="2024743" cy="500743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>677333</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>82163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>10687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="14827" b="-11094"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15096067" y="31800800"/>
-          <a:ext cx="2912533" cy="801830"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>846668</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Рисунок 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="49659" r="9507" b="-1095"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15087601" y="32512000"/>
-          <a:ext cx="2929465" cy="397933"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>845058</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1951,32 +1874,204 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="33265534"/>
-          <a:ext cx="2436791" cy="761999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+          <a:off x="10635343" y="24525515"/>
+          <a:ext cx="2024743" cy="380800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32659</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>2469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1086" t="1796" b="83246"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681858" y="30958971"/>
+          <a:ext cx="4680858" cy="514098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>936173</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1738" t="76889" r="39916"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14194973" y="31481486"/>
+          <a:ext cx="3178627" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="5742"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="31470600"/>
+          <a:ext cx="3603171" cy="925286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1" r="29390" b="-859"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="20018829"/>
+          <a:ext cx="2013857" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34"/>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14194</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1989,56 +2084,706 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="72988"/>
+        <a:srcRect b="54037"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="34417000"/>
-          <a:ext cx="2446867" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+          <a:off x="10635343" y="18875830"/>
+          <a:ext cx="2028051" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="29336" b="20901"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22881772" y="14129656"/>
+          <a:ext cx="1556657" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>594049</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="13596257"/>
+          <a:ext cx="3032449" cy="1415143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="61763" b="-8475"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="15229113"/>
+          <a:ext cx="3069772" cy="696687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>718457</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="4310743"/>
+          <a:ext cx="3341914" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="2634343"/>
+          <a:ext cx="3135085" cy="348343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1992086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>239486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Рисунок 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="53803" b="-2501"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="6085114"/>
+          <a:ext cx="1992086" cy="446315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>852267</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Рисунок 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="46839" b="16454"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10635343" y="7576457"/>
+          <a:ext cx="2013857" cy="607273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Рисунок 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="58054" b="-5172"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="957942"/>
+          <a:ext cx="2416628" cy="664029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1545771</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Рисунок 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1" r="34476" b="-4082"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427542" y="2438399"/>
+          <a:ext cx="2438401" cy="555171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Рисунок 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="-1" r="39987" b="-20407"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="3777342"/>
+          <a:ext cx="2427514" cy="642257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>272142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Рисунок 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="37410" b="-6897"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="5018313"/>
+          <a:ext cx="2427514" cy="674915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>601978</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Рисунок 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="6291942"/>
+          <a:ext cx="2430778" cy="631371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35"/>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12439</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Рисунок 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="7576457"/>
+          <a:ext cx="2450839" cy="522514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Рисунок 52"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="8799"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1" r="27022" b="-24001"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12649200" y="35382201"/>
-          <a:ext cx="2444000" cy="1913466"/>
+          <a:off x="24427544" y="12475028"/>
+          <a:ext cx="2438400" cy="674915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Рисунок 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="48000" b="-27084"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="9982199"/>
+          <a:ext cx="2438400" cy="664029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Рисунок 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="1" r="37047" b="-47170"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24427543" y="11103428"/>
+          <a:ext cx="2449286" cy="849085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,82 +3071,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="I3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="I4" s="18" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="8" spans="4:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="D8" s="13"/>
@@ -2453,10 +3198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:O162"/>
+  <dimension ref="C1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,52 +3215,53 @@
     <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="14" width="12.109375" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="22" max="22" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="25.8" customHeight="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="3:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:24" ht="25.8" customHeight="1" x14ac:dyDescent="1.05">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="3:12" ht="14.4" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="1.05">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
@@ -2530,8 +3276,14 @@
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="U5" s="20"/>
+      <c r="V5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+    </row>
+    <row r="6" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -2546,8 +3298,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="U6" s="20"/>
+      <c r="V6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+    </row>
+    <row r="7" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
@@ -2562,155 +3320,380 @@
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="U7" s="20"/>
+      <c r="V7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+    </row>
+    <row r="8" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+    </row>
+    <row r="9" spans="3:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+    </row>
+    <row r="10" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="3:12" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G13" s="11" t="s">
+      <c r="G10" s="25"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+    </row>
+    <row r="11" spans="3:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="U11" s="20"/>
+      <c r="V11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+    </row>
+    <row r="12" spans="3:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="U12" s="20"/>
+      <c r="V12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+    </row>
+    <row r="13" spans="3:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="U13" s="20"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+    </row>
+    <row r="14" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G14" s="10" t="s">
+      <c r="O14" s="21"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+    </row>
+    <row r="15" spans="3:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G15" s="10" t="s">
+      <c r="K15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" s="20"/>
+      <c r="V15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+    </row>
+    <row r="16" spans="3:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G16" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G18" s="11" t="s">
+      <c r="U16" s="20"/>
+      <c r="V16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+    </row>
+    <row r="17" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G17" s="24"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="24">
+        <v>0</v>
+      </c>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+    </row>
+    <row r="18" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G18" s="21"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+    </row>
+    <row r="19" spans="7:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="U19" s="20"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+    </row>
+    <row r="20" spans="7:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="U20" s="20"/>
+      <c r="V20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+    </row>
+    <row r="21" spans="7:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G19" s="10" t="s">
+      <c r="U21" s="20"/>
+      <c r="V21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G22" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G20" s="10" t="s">
+      <c r="U22" s="20"/>
+      <c r="V22" s="24">
+        <v>0</v>
+      </c>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+    </row>
+    <row r="23" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G24" s="12" t="s">
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+    </row>
+    <row r="24" spans="7:24" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="G24" s="26"/>
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" spans="7:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="V25" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="V26" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="7:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G27" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G25" s="10" t="s">
+      <c r="V27" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G28" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G26" s="10" t="s">
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G30" s="12" t="s">
+    <row r="30" spans="7:24" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G30" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="V31" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="7:24" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="V32" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G33" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G31" s="10" t="s">
+    <row r="34" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G34" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G42" s="12" t="s">
+    <row r="35" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G35" s="26"/>
+      <c r="V35" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G36" s="26"/>
+      <c r="V36" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="V37" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="V40" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="V41" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="V42" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G45" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="7:22" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="G46" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="7:7" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G43" s="17" t="s">
+      <c r="V46" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="7:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="G47" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="7:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="G44" s="16" t="s">
+      <c r="V47" s="24">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="48" spans="7:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="G48" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="7:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="G45" s="16" t="s">
+    <row r="49" spans="7:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="G49" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="7:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="G46" s="16" t="s">
+      <c r="K49" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G50" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G52" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="7:11" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="G53" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="7:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="G54" s="16" t="s">
+      <c r="K50" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="7:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="G55" s="16" t="s">
+      <c r="V50" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G51" s="26"/>
+      <c r="K51" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G52" s="20"/>
+      <c r="V52" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G55" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="7:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="G56" s="16" t="s">
+      <c r="V55" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="7:22" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="G56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="7:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="G57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V57" s="24"/>
+    </row>
+    <row r="58" spans="7:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="G58" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G59" s="26"/>
+    </row>
+    <row r="62" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="V62" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="7:22" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G63" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="7:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="G57" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="7:11" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G63" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G64" s="10" t="s">
+      <c r="V63" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="7:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="G64" s="16" t="s">
         <v>51</v>
+      </c>
+      <c r="V64" s="24">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="7:15" ht="21" x14ac:dyDescent="0.5">
@@ -2723,197 +3706,227 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G71" s="12" t="s">
+    <row r="67" spans="7:15" ht="21" x14ac:dyDescent="0.5">
+      <c r="G67" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="72" spans="7:15" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G72" s="10" t="s">
+      <c r="K67" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G73" s="16" t="s">
+      <c r="O67" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O73" s="16" t="s">
-        <v>60</v>
+    </row>
+    <row r="68" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G68" s="26"/>
+      <c r="K68" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" s="26">
+        <v>48500347153</v>
+      </c>
+    </row>
+    <row r="73" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G73" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="7:15" ht="21" x14ac:dyDescent="0.5">
       <c r="G74" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="7:15" ht="21" x14ac:dyDescent="0.5">
+      <c r="G75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="7:15" ht="21" x14ac:dyDescent="0.5">
+      <c r="G76" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G77" s="26">
+        <v>1024</v>
+      </c>
+      <c r="K77" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G80" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="G81" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G82" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G91" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K74" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O74" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G78" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G79" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G80" s="16" t="s">
+    </row>
+    <row r="92" spans="7:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="G92" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G93" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G102" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G81" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G82" s="16" t="s">
+    <row r="103" spans="7:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="G103" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G104" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G105" s="26"/>
+    </row>
+    <row r="114" spans="5:18" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G114" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K82" s="16" t="s">
+    </row>
+    <row r="115" spans="5:18" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="G115" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K115" s="23"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20"/>
+    </row>
+    <row r="122" spans="5:18" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="G122" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O82" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G88" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G89" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G90" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K90" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G91" s="23" t="s">
+    </row>
+    <row r="123" spans="5:18" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="G123" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K91" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G95" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="7:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="G96" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="106" spans="7:7" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G106" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="7:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="G107" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="7:7" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G117" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="7:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="G118" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
+    </row>
+    <row r="125" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+    </row>
+    <row r="126" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+    </row>
+    <row r="129" spans="5:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="E129" s="20"/>
       <c r="G129" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="130" spans="7:15" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="G130" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K130" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="L130" s="26"/>
-      <c r="M130" s="26"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="26"/>
-    </row>
-    <row r="137" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G137" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="138" spans="7:15" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="G138" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="144" spans="7:15" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G144" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145" spans="7:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="G145" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
-    </row>
-    <row r="151" spans="7:10" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G151" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="152" spans="7:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="G152" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="156" spans="7:10" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G156" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="157" spans="7:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="G157" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="7:10" ht="25.2" x14ac:dyDescent="0.6">
-      <c r="G160" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="161" spans="7:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="G161" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="162" spans="7:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="G162" s="27"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="E130" s="20"/>
+      <c r="G130" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="E131" s="20"/>
+      <c r="G131" s="24"/>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="20"/>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="20"/>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="20"/>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="20"/>
+    </row>
+    <row r="136" spans="5:7" ht="25.2" x14ac:dyDescent="0.6">
+      <c r="E136" s="20"/>
+      <c r="G136" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="E137" s="20"/>
+      <c r="G137" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E138" s="20"/>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="20"/>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E140" s="20"/>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E141" s="20"/>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E142" s="20"/>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E143" s="20"/>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E144" s="20"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="20"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
